--- a/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44656</v>
       </c>
       <c r="B2" t="n">
-        <v>38.76822613741052</v>
+        <v>38.76822613741084</v>
       </c>
       <c r="C2" t="n">
-        <v>3.013808069483827</v>
+        <v>5.410712170668763</v>
       </c>
       <c r="D2" t="n">
-        <v>72.42788000113833</v>
+        <v>73.25559821335193</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -496,13 +496,13 @@
         <v>44663</v>
       </c>
       <c r="B3" t="n">
-        <v>31.61159674616886</v>
+        <v>31.61159671189681</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.097742346400979</v>
+        <v>-1.232272491563955</v>
       </c>
       <c r="D3" t="n">
-        <v>64.13940457893057</v>
+        <v>64.29075868476674</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -516,13 +516,13 @@
         <v>44670</v>
       </c>
       <c r="B4" t="n">
-        <v>48.04126125760349</v>
+        <v>50.10513027238832</v>
       </c>
       <c r="C4" t="n">
-        <v>15.79808701970378</v>
+        <v>16.27016875816971</v>
       </c>
       <c r="D4" t="n">
-        <v>81.18280994648968</v>
+        <v>85.96584283680392</v>
       </c>
       <c r="E4" t="n">
         <v>50</v>
@@ -536,13 +536,13 @@
         <v>44677</v>
       </c>
       <c r="B5" t="n">
-        <v>58.82887312771592</v>
+        <v>57.71679659755944</v>
       </c>
       <c r="C5" t="n">
-        <v>26.64976317740721</v>
+        <v>24.82065464915499</v>
       </c>
       <c r="D5" t="n">
-        <v>94.21929313448946</v>
+        <v>90.44317410975303</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>44684</v>
       </c>
       <c r="B6" t="n">
-        <v>38.02274260122357</v>
+        <v>38.71131745703024</v>
       </c>
       <c r="C6" t="n">
-        <v>3.920277578238753</v>
+        <v>4.53037659084363</v>
       </c>
       <c r="D6" t="n">
-        <v>73.43674062510941</v>
+        <v>72.16590110887509</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44691</v>
       </c>
       <c r="B7" t="n">
-        <v>35.11058029819053</v>
+        <v>35.02851511809845</v>
       </c>
       <c r="C7" t="n">
-        <v>1.366272251641984</v>
+        <v>2.898121249487656</v>
       </c>
       <c r="D7" t="n">
-        <v>71.26243572048902</v>
+        <v>66.99125404751449</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -596,13 +596,13 @@
         <v>44701</v>
       </c>
       <c r="B8" t="n">
-        <v>13.66003394039745</v>
+        <v>13.65882964368609</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.08384865691506</v>
+        <v>-20.53465247574944</v>
       </c>
       <c r="D8" t="n">
-        <v>50.05892141565612</v>
+        <v>46.80663265095677</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>17.16942170419011</v>
+        <v>17.17649396494984</v>
       </c>
       <c r="C9" t="n">
-        <v>-15.12766125404544</v>
+        <v>-13.04555244004277</v>
       </c>
       <c r="D9" t="n">
-        <v>47.68120182239799</v>
+        <v>50.33732493585153</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -636,13 +636,13 @@
         <v>44715</v>
       </c>
       <c r="B10" t="n">
-        <v>26.40974884442744</v>
+        <v>26.16310951789116</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.072328435206398</v>
+        <v>-6.851613573975218</v>
       </c>
       <c r="D10" t="n">
-        <v>59.02758274787502</v>
+        <v>57.29170809442331</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -656,13 +656,13 @@
         <v>44719</v>
       </c>
       <c r="B11" t="n">
-        <v>33.25909713559005</v>
+        <v>33.1339993708531</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.88906684519379</v>
+        <v>-1.198587165394627</v>
       </c>
       <c r="D11" t="n">
-        <v>66.39087351080846</v>
+        <v>64.8457847319719</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44726</v>
       </c>
       <c r="B12" t="n">
-        <v>28.74400068984115</v>
+        <v>27.59876078544363</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.538536147983413</v>
+        <v>-4.357307593996955</v>
       </c>
       <c r="D12" t="n">
-        <v>60.31256293613956</v>
+        <v>58.55972741166873</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -696,13 +696,13 @@
         <v>44736</v>
       </c>
       <c r="B13" t="n">
-        <v>26.90923579353707</v>
+        <v>24.75440824079543</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.637392563692746</v>
+        <v>-10.68170295103311</v>
       </c>
       <c r="D13" t="n">
-        <v>59.77149189811546</v>
+        <v>60.12090473643634</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -716,13 +716,13 @@
         <v>44740</v>
       </c>
       <c r="B14" t="n">
-        <v>33.63720549385457</v>
+        <v>31.37706065670077</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7990497862659663</v>
+        <v>-4.189549422733407</v>
       </c>
       <c r="D14" t="n">
-        <v>66.74094282781594</v>
+        <v>65.36716063697708</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -736,13 +736,13 @@
         <v>44743</v>
       </c>
       <c r="B15" t="n">
-        <v>36.589704194822</v>
+        <v>37.03996850824623</v>
       </c>
       <c r="C15" t="n">
-        <v>1.615964530668899</v>
+        <v>3.09242335912511</v>
       </c>
       <c r="D15" t="n">
-        <v>68.63922413743448</v>
+        <v>68.64226487776742</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -756,13 +756,13 @@
         <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>42.08209582863425</v>
+        <v>42.32575868973905</v>
       </c>
       <c r="C16" t="n">
-        <v>10.14339338800353</v>
+        <v>10.87634218455507</v>
       </c>
       <c r="D16" t="n">
-        <v>76.54473892764663</v>
+        <v>71.81010840611491</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
@@ -776,13 +776,13 @@
         <v>44754</v>
       </c>
       <c r="B17" t="n">
-        <v>42.16807858319389</v>
+        <v>41.33568637154709</v>
       </c>
       <c r="C17" t="n">
-        <v>9.093935935577349</v>
+        <v>8.967892069974617</v>
       </c>
       <c r="D17" t="n">
-        <v>76.18541248837997</v>
+        <v>74.10509164819908</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -796,13 +796,13 @@
         <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>51.49198929018043</v>
+        <v>51.91336817299538</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7765939965571</v>
+        <v>18.27604733604323</v>
       </c>
       <c r="D18" t="n">
-        <v>87.48368225120159</v>
+        <v>87.03769396930487</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -816,13 +816,13 @@
         <v>44771</v>
       </c>
       <c r="B19" t="n">
-        <v>73.76957476520376</v>
+        <v>73.46398234306936</v>
       </c>
       <c r="C19" t="n">
-        <v>40.63862333356123</v>
+        <v>42.69611027415326</v>
       </c>
       <c r="D19" t="n">
-        <v>106.5316621524821</v>
+        <v>105.5610070097497</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -836,13 +836,13 @@
         <v>44778</v>
       </c>
       <c r="B20" t="n">
-        <v>71.03493116937894</v>
+        <v>64.89242530370885</v>
       </c>
       <c r="C20" t="n">
-        <v>37.01374114532821</v>
+        <v>31.69512609649638</v>
       </c>
       <c r="D20" t="n">
-        <v>102.8693125389662</v>
+        <v>97.73885609084509</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -856,13 +856,13 @@
         <v>44785</v>
       </c>
       <c r="B21" t="n">
-        <v>51.88191777485579</v>
+        <v>52.57445879098226</v>
       </c>
       <c r="C21" t="n">
-        <v>19.40784121007827</v>
+        <v>19.85928168377156</v>
       </c>
       <c r="D21" t="n">
-        <v>86.41918752572471</v>
+        <v>83.47104653754818</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -876,13 +876,13 @@
         <v>44789</v>
       </c>
       <c r="B22" t="n">
-        <v>47.50338122858368</v>
+        <v>49.52158397957758</v>
       </c>
       <c r="C22" t="n">
-        <v>12.61305842788757</v>
+        <v>17.29971411161675</v>
       </c>
       <c r="D22" t="n">
-        <v>81.34175465567407</v>
+        <v>85.0878370104834</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
@@ -896,13 +896,13 @@
         <v>44796</v>
       </c>
       <c r="B23" t="n">
-        <v>9.274161971904469</v>
+        <v>12.49910763648394</v>
       </c>
       <c r="C23" t="n">
-        <v>-22.92668276008541</v>
+        <v>-18.75185445513266</v>
       </c>
       <c r="D23" t="n">
-        <v>40.46353569593747</v>
+        <v>46.54393152093925</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -916,13 +916,13 @@
         <v>44803</v>
       </c>
       <c r="B24" t="n">
-        <v>16.52176202833157</v>
+        <v>17.12398143056969</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.87038508595496</v>
+        <v>-15.53609956519203</v>
       </c>
       <c r="D24" t="n">
-        <v>49.42425071934979</v>
+        <v>48.86573840722041</v>
       </c>
       <c r="E24" t="n">
         <v>80</v>
@@ -936,13 +936,13 @@
         <v>44810</v>
       </c>
       <c r="B25" t="n">
-        <v>56.16823837607865</v>
+        <v>55.81073101384419</v>
       </c>
       <c r="C25" t="n">
-        <v>22.91210823209374</v>
+        <v>21.75699914349882</v>
       </c>
       <c r="D25" t="n">
-        <v>86.79850409533267</v>
+        <v>89.54667279012617</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -956,13 +956,13 @@
         <v>44817</v>
       </c>
       <c r="B26" t="n">
-        <v>73.29222732594583</v>
+        <v>74.81784085241632</v>
       </c>
       <c r="C26" t="n">
-        <v>42.32175609200769</v>
+        <v>43.80809201355207</v>
       </c>
       <c r="D26" t="n">
-        <v>106.6510524452769</v>
+        <v>109.1408369507055</v>
       </c>
       <c r="E26" t="n">
         <v>40</v>
@@ -976,13 +976,13 @@
         <v>44831</v>
       </c>
       <c r="B27" t="n">
-        <v>74.51577765472724</v>
+        <v>74.14510260141839</v>
       </c>
       <c r="C27" t="n">
-        <v>42.84060980102753</v>
+        <v>40.36340138807717</v>
       </c>
       <c r="D27" t="n">
-        <v>110.0507982571547</v>
+        <v>109.6233282115171</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -996,13 +996,13 @@
         <v>44838</v>
       </c>
       <c r="B28" t="n">
-        <v>53.29556679533775</v>
+        <v>53.41522872434466</v>
       </c>
       <c r="C28" t="n">
-        <v>19.56047279099426</v>
+        <v>21.33070135136139</v>
       </c>
       <c r="D28" t="n">
-        <v>86.76670215669409</v>
+        <v>84.21205712968448</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44845</v>
       </c>
       <c r="B29" t="n">
-        <v>40.17563222243455</v>
+        <v>38.90210776979011</v>
       </c>
       <c r="C29" t="n">
-        <v>9.390733820668913</v>
+        <v>4.313465512504605</v>
       </c>
       <c r="D29" t="n">
-        <v>76.10374105408499</v>
+        <v>72.93377599764115</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44852</v>
       </c>
       <c r="B30" t="n">
-        <v>32.48061115856893</v>
+        <v>32.30122417778995</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1741391133869211</v>
+        <v>-0.3309373079694966</v>
       </c>
       <c r="D30" t="n">
-        <v>67.72716884808337</v>
+        <v>65.28428317592764</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44859</v>
       </c>
       <c r="B31" t="n">
-        <v>35.61149886023638</v>
+        <v>36.15804688459713</v>
       </c>
       <c r="C31" t="n">
-        <v>5.579243758219621</v>
+        <v>2.525227178080217</v>
       </c>
       <c r="D31" t="n">
-        <v>69.4058182800167</v>
+        <v>68.74939547866759</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1076,13 +1076,13 @@
         <v>44865</v>
       </c>
       <c r="B32" t="n">
-        <v>26.49025312413782</v>
+        <v>23.68900985735258</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.4230422066517</v>
+        <v>-9.281153825439034</v>
       </c>
       <c r="D32" t="n">
-        <v>57.08625942347968</v>
+        <v>55.38987731023124</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1096,13 +1096,13 @@
         <v>44869</v>
       </c>
       <c r="B33" t="n">
-        <v>34.28313859295776</v>
+        <v>34.06662203619078</v>
       </c>
       <c r="C33" t="n">
-        <v>2.888123056124813</v>
+        <v>0.6542234607477573</v>
       </c>
       <c r="D33" t="n">
-        <v>68.46704972986051</v>
+        <v>67.48934471734809</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1116,13 +1116,13 @@
         <v>44873</v>
       </c>
       <c r="B34" t="n">
-        <v>34.11931122139635</v>
+        <v>34.08176252547825</v>
       </c>
       <c r="C34" t="n">
-        <v>1.518087913788976</v>
+        <v>4.413718917204314</v>
       </c>
       <c r="D34" t="n">
-        <v>64.74277244196162</v>
+        <v>65.43157831858552</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>44880</v>
       </c>
       <c r="B35" t="n">
-        <v>25.2037769065081</v>
+        <v>25.39810791990273</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.91443153820319</v>
+        <v>-9.374464753529972</v>
       </c>
       <c r="D35" t="n">
-        <v>59.62213097021235</v>
+        <v>57.85071433175039</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1156,13 +1156,13 @@
         <v>44890</v>
       </c>
       <c r="B36" t="n">
-        <v>11.57240017452047</v>
+        <v>12.27388052442778</v>
       </c>
       <c r="C36" t="n">
-        <v>-20.86578703319614</v>
+        <v>-20.75398335334028</v>
       </c>
       <c r="D36" t="n">
-        <v>45.5974891518735</v>
+        <v>43.60017281675093</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44936</v>
       </c>
       <c r="B37" t="n">
-        <v>11.05929603060729</v>
+        <v>11.43257106561085</v>
       </c>
       <c r="C37" t="n">
-        <v>-20.17138605232597</v>
+        <v>-22.31997016402567</v>
       </c>
       <c r="D37" t="n">
-        <v>42.55530544559357</v>
+        <v>42.57741262518632</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1196,13 +1196,13 @@
         <v>44943</v>
       </c>
       <c r="B38" t="n">
-        <v>16.74170588702131</v>
+        <v>16.35070792402473</v>
       </c>
       <c r="C38" t="n">
-        <v>-16.68536017837825</v>
+        <v>-16.81996656796097</v>
       </c>
       <c r="D38" t="n">
-        <v>47.38908117588424</v>
+        <v>49.89503898097747</v>
       </c>
       <c r="E38" t="n">
         <v>40</v>
@@ -1216,13 +1216,13 @@
         <v>44950</v>
       </c>
       <c r="B39" t="n">
-        <v>31.22435197627537</v>
+        <v>31.51778889747202</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3809687350878367</v>
+        <v>-2.111138474830313</v>
       </c>
       <c r="D39" t="n">
-        <v>62.80305234616556</v>
+        <v>65.03443188562312</v>
       </c>
       <c r="E39" t="n">
         <v>70</v>
@@ -1236,13 +1236,13 @@
         <v>44957</v>
       </c>
       <c r="B40" t="n">
-        <v>44.42533533183651</v>
+        <v>44.76568638305437</v>
       </c>
       <c r="C40" t="n">
-        <v>13.46808818577439</v>
+        <v>13.09456813421984</v>
       </c>
       <c r="D40" t="n">
-        <v>77.8699163107817</v>
+        <v>75.46448460271699</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44960</v>
       </c>
       <c r="B41" t="n">
-        <v>32.61791708581038</v>
+        <v>32.66798669842792</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.4644288790271821</v>
+        <v>2.703359347148659</v>
       </c>
       <c r="D41" t="n">
-        <v>66.35924798426231</v>
+        <v>64.02291663078896</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44964</v>
       </c>
       <c r="B42" t="n">
-        <v>31.90316026116359</v>
+        <v>33.46791916509299</v>
       </c>
       <c r="C42" t="n">
-        <v>1.34493767765271</v>
+        <v>-1.582778547147379</v>
       </c>
       <c r="D42" t="n">
-        <v>65.01838496374752</v>
+        <v>65.64310945000796</v>
       </c>
       <c r="E42" t="n">
         <v>70</v>
@@ -1296,13 +1296,13 @@
         <v>45006</v>
       </c>
       <c r="B43" t="n">
-        <v>66.51506660128115</v>
+        <v>66.62288102465797</v>
       </c>
       <c r="C43" t="n">
-        <v>36.43872970146376</v>
+        <v>34.9209978863526</v>
       </c>
       <c r="D43" t="n">
-        <v>100.8447428379921</v>
+        <v>98.65631629725195</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1316,13 +1316,13 @@
         <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>26.98909646446541</v>
+        <v>26.45598364445041</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.095494367348215</v>
+        <v>-4.047440636033379</v>
       </c>
       <c r="D44" t="n">
-        <v>60.60492987684197</v>
+        <v>58.52288264494358</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1336,13 +1336,13 @@
         <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>21.94076135850344</v>
+        <v>20.77034198572954</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.69079729384353</v>
+        <v>-11.2584978293512</v>
       </c>
       <c r="D45" t="n">
-        <v>54.39077306606222</v>
+        <v>53.21128702489526</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1417,22 +1417,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>973.432227143883</v>
+        <v>923.3185454866368</v>
       </c>
       <c r="C2" t="n">
-        <v>31.19987543474946</v>
+        <v>30.38615713588404</v>
       </c>
       <c r="D2" t="n">
-        <v>24.74726082407129</v>
+        <v>24.11879370964296</v>
       </c>
       <c r="E2" t="n">
-        <v>1.942914451271287</v>
+        <v>1.90328246062276</v>
       </c>
       <c r="F2" t="n">
-        <v>1.367831038979298</v>
+        <v>1.163080843456961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7853261557226595</v>
+        <v>0.7784892526112317</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666666</v>
@@ -1443,22 +1443,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>431.6292639646546</v>
+        <v>420.2145890501903</v>
       </c>
       <c r="C3" t="n">
-        <v>20.77568925366026</v>
+        <v>20.49913630010275</v>
       </c>
       <c r="D3" t="n">
-        <v>16.31131101410522</v>
+        <v>16.01221240487528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7491104078566327</v>
+        <v>0.7383778207696653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7059655610698176</v>
+        <v>0.7040881262739124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4840648363436761</v>
+        <v>0.4774736645707285</v>
       </c>
       <c r="H3" t="n">
         <v>0.8571428571428571</v>
@@ -1469,22 +1469,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>704.0949120573296</v>
+        <v>696.1053234474512</v>
       </c>
       <c r="C4" t="n">
-        <v>26.53478682894079</v>
+        <v>26.38380797852068</v>
       </c>
       <c r="D4" t="n">
-        <v>21.61465469908197</v>
+        <v>21.23276319156979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8706133623685437</v>
+        <v>0.8577893623326212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5676975908674096</v>
+        <v>0.5704890873963193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6221366225707974</v>
+        <v>0.6041384171058963</v>
       </c>
       <c r="H4" t="n">
         <v>0.7142857142857144</v>

--- a/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
@@ -473,159 +473,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="B2" t="n">
-        <v>38.76822613741084</v>
+        <v>52.44614343205969</v>
       </c>
       <c r="C2" t="n">
-        <v>5.410712170668763</v>
+        <v>17.99688769250926</v>
       </c>
       <c r="D2" t="n">
-        <v>73.25559821335193</v>
+        <v>87.08774739856739</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44649</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>31.61159671189681</v>
+        <v>38.76822613741132</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.232272491563955</v>
+        <v>5.660200698229613</v>
       </c>
       <c r="D3" t="n">
-        <v>64.29075868476674</v>
+        <v>73.65500814314916</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44656</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
       <c r="B4" t="n">
-        <v>50.10513027238832</v>
+        <v>31.61159670618857</v>
       </c>
       <c r="C4" t="n">
-        <v>16.27016875816971</v>
+        <v>-2.587376136975185</v>
       </c>
       <c r="D4" t="n">
-        <v>85.96584283680392</v>
+        <v>69.42476886258038</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44663</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44677</v>
+        <v>44670</v>
       </c>
       <c r="B5" t="n">
-        <v>57.71679659755944</v>
+        <v>48.04126125760349</v>
       </c>
       <c r="C5" t="n">
-        <v>24.82065464915499</v>
+        <v>12.26561007168941</v>
       </c>
       <c r="D5" t="n">
-        <v>90.44317410975303</v>
+        <v>82.97842010404678</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44670</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44684</v>
+        <v>44677</v>
       </c>
       <c r="B6" t="n">
-        <v>38.71131745703024</v>
+        <v>58.82887312771592</v>
       </c>
       <c r="C6" t="n">
-        <v>4.53037659084363</v>
+        <v>22.98508394790628</v>
       </c>
       <c r="D6" t="n">
-        <v>72.16590110887509</v>
+        <v>91.95978064271381</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44677</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44691</v>
+        <v>44684</v>
       </c>
       <c r="B7" t="n">
-        <v>35.02851511809845</v>
+        <v>38.02274260122357</v>
       </c>
       <c r="C7" t="n">
-        <v>2.898121249487656</v>
+        <v>3.498056130585331</v>
       </c>
       <c r="D7" t="n">
-        <v>66.99125404751449</v>
+        <v>71.63465842361278</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44684</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44701</v>
+        <v>44691</v>
       </c>
       <c r="B8" t="n">
-        <v>13.65882964368609</v>
+        <v>35.11058029819053</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.53465247574944</v>
+        <v>0.7473615042292693</v>
       </c>
       <c r="D8" t="n">
-        <v>46.80663265095677</v>
+        <v>69.99832725341471</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44698</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B9" t="n">
-        <v>17.17649396494984</v>
+        <v>13.66003394039745</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.04555244004277</v>
+        <v>-22.23450032212188</v>
       </c>
       <c r="D9" t="n">
-        <v>50.33732493585153</v>
+        <v>47.1833238899011</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44698</v>
@@ -633,39 +633,39 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44715</v>
+        <v>44705</v>
       </c>
       <c r="B10" t="n">
-        <v>26.16310951789116</v>
+        <v>17.16942170419011</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.851613573975218</v>
+        <v>-16.50196687765551</v>
       </c>
       <c r="D10" t="n">
-        <v>57.29170809442331</v>
+        <v>48.7098506824165</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44712</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44719</v>
+        <v>44715</v>
       </c>
       <c r="B11" t="n">
-        <v>33.1339993708531</v>
+        <v>26.40974884442744</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.198587165394627</v>
+        <v>-7.71861760527867</v>
       </c>
       <c r="D11" t="n">
-        <v>64.8457847319719</v>
+        <v>58.82422470076181</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44712</v>
@@ -673,59 +673,59 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44726</v>
+        <v>44719</v>
       </c>
       <c r="B12" t="n">
-        <v>27.59876078544363</v>
+        <v>33.25909713559005</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.357307593996955</v>
+        <v>0.6621295557559564</v>
       </c>
       <c r="D12" t="n">
-        <v>58.55972741166873</v>
+        <v>65.98140511209304</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44719</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44736</v>
+        <v>44726</v>
       </c>
       <c r="B13" t="n">
-        <v>24.75440824079543</v>
+        <v>28.74400068984115</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.68170295103311</v>
+        <v>-3.766456205253474</v>
       </c>
       <c r="D13" t="n">
-        <v>60.12090473643634</v>
+        <v>63.04833173362382</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44733</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44740</v>
+        <v>44736</v>
       </c>
       <c r="B14" t="n">
-        <v>31.37706065670077</v>
+        <v>26.90923579353707</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.189549422733407</v>
+        <v>-9.369563329376156</v>
       </c>
       <c r="D14" t="n">
-        <v>65.36716063697708</v>
+        <v>60.94901361362856</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44733</v>
@@ -733,36 +733,36 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B15" t="n">
-        <v>37.03996850824623</v>
+        <v>33.63720549385457</v>
       </c>
       <c r="C15" t="n">
-        <v>3.09242335912511</v>
+        <v>0.872485158740697</v>
       </c>
       <c r="D15" t="n">
-        <v>68.64226487776742</v>
+        <v>68.33090592313096</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B16" t="n">
-        <v>42.32575868973905</v>
+        <v>36.589704194822</v>
       </c>
       <c r="C16" t="n">
-        <v>10.87634218455507</v>
+        <v>4.373853794188249</v>
       </c>
       <c r="D16" t="n">
-        <v>71.81010840611491</v>
+        <v>67.62447068950357</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
@@ -773,119 +773,119 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B17" t="n">
-        <v>41.33568637154709</v>
+        <v>42.08209582863425</v>
       </c>
       <c r="C17" t="n">
-        <v>8.967892069974617</v>
+        <v>10.62882907682813</v>
       </c>
       <c r="D17" t="n">
-        <v>74.10509164819908</v>
+        <v>77.29358898640515</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B18" t="n">
-        <v>51.91336817299538</v>
+        <v>42.16807858319389</v>
       </c>
       <c r="C18" t="n">
-        <v>18.27604733604323</v>
+        <v>11.78124912255395</v>
       </c>
       <c r="D18" t="n">
-        <v>87.03769396930487</v>
+        <v>74.04632581386562</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44771</v>
+        <v>44761</v>
       </c>
       <c r="B19" t="n">
-        <v>73.46398234306936</v>
+        <v>51.49198929018043</v>
       </c>
       <c r="C19" t="n">
-        <v>42.69611027415326</v>
+        <v>20.9437851621332</v>
       </c>
       <c r="D19" t="n">
-        <v>105.5610070097497</v>
+        <v>85.7274097675942</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44768</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44778</v>
+        <v>44771</v>
       </c>
       <c r="B20" t="n">
-        <v>64.89242530370885</v>
+        <v>73.76957476520376</v>
       </c>
       <c r="C20" t="n">
-        <v>31.69512609649638</v>
+        <v>42.32926229463914</v>
       </c>
       <c r="D20" t="n">
-        <v>97.73885609084509</v>
+        <v>103.8067468261766</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44785</v>
+        <v>44778</v>
       </c>
       <c r="B21" t="n">
-        <v>52.57445879098226</v>
+        <v>64.93324191379435</v>
       </c>
       <c r="C21" t="n">
-        <v>19.85928168377156</v>
+        <v>28.74924629223288</v>
       </c>
       <c r="D21" t="n">
-        <v>83.47104653754818</v>
+        <v>100.9067650883389</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44789</v>
+        <v>44785</v>
       </c>
       <c r="B22" t="n">
-        <v>49.52158397957758</v>
+        <v>50.1870438613974</v>
       </c>
       <c r="C22" t="n">
-        <v>17.29971411161675</v>
+        <v>16.31093011383641</v>
       </c>
       <c r="D22" t="n">
-        <v>85.0878370104834</v>
+        <v>85.07890465233724</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>44782</v>
@@ -893,102 +893,102 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B23" t="n">
-        <v>12.49910763648394</v>
+        <v>45.24672317819635</v>
       </c>
       <c r="C23" t="n">
-        <v>-18.75185445513266</v>
+        <v>12.25164634319869</v>
       </c>
       <c r="D23" t="n">
-        <v>46.54393152093925</v>
+        <v>77.38711306880472</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B24" t="n">
-        <v>17.12398143056969</v>
+        <v>11.36753559597421</v>
       </c>
       <c r="C24" t="n">
-        <v>-15.53609956519203</v>
+        <v>-20.58848166732805</v>
       </c>
       <c r="D24" t="n">
-        <v>48.86573840722041</v>
+        <v>43.20410933469456</v>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
       <c r="B25" t="n">
-        <v>55.81073101384419</v>
+        <v>16.95018312333695</v>
       </c>
       <c r="C25" t="n">
-        <v>21.75699914349882</v>
+        <v>-15.98875601160702</v>
       </c>
       <c r="D25" t="n">
-        <v>89.54667279012617</v>
+        <v>49.15974449224567</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B26" t="n">
-        <v>74.81784085241632</v>
+        <v>55.01157883784865</v>
       </c>
       <c r="C26" t="n">
-        <v>43.80809201355207</v>
+        <v>21.48905933141356</v>
       </c>
       <c r="D26" t="n">
-        <v>109.1408369507055</v>
+        <v>86.86307457038127</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B27" t="n">
-        <v>74.14510260141839</v>
+        <v>74.40085895540706</v>
       </c>
       <c r="C27" t="n">
-        <v>40.36340138807717</v>
+        <v>43.85650664670668</v>
       </c>
       <c r="D27" t="n">
-        <v>109.6233282115171</v>
+        <v>109.7125517052602</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44827</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="28">
@@ -996,13 +996,13 @@
         <v>44838</v>
       </c>
       <c r="B28" t="n">
-        <v>53.41522872434466</v>
+        <v>58.91516448897325</v>
       </c>
       <c r="C28" t="n">
-        <v>21.33070135136139</v>
+        <v>24.58805410053699</v>
       </c>
       <c r="D28" t="n">
-        <v>84.21205712968448</v>
+        <v>91.68802707883172</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44845</v>
       </c>
       <c r="B29" t="n">
-        <v>38.90210776979011</v>
+        <v>40.2072466010346</v>
       </c>
       <c r="C29" t="n">
-        <v>4.313465512504605</v>
+        <v>7.379308345840528</v>
       </c>
       <c r="D29" t="n">
-        <v>72.93377599764115</v>
+        <v>75.05064500927698</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44852</v>
       </c>
       <c r="B30" t="n">
-        <v>32.30122417778995</v>
+        <v>32.15223397443317</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3309373079694966</v>
+        <v>-1.171107779251309</v>
       </c>
       <c r="D30" t="n">
-        <v>65.28428317592764</v>
+        <v>64.701780777039</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44859</v>
       </c>
       <c r="B31" t="n">
-        <v>36.15804688459713</v>
+        <v>35.56982494998465</v>
       </c>
       <c r="C31" t="n">
-        <v>2.525227178080217</v>
+        <v>3.333242074379877</v>
       </c>
       <c r="D31" t="n">
-        <v>68.74939547866759</v>
+        <v>67.53149091442614</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1076,13 +1076,13 @@
         <v>44865</v>
       </c>
       <c r="B32" t="n">
-        <v>23.68900985735258</v>
+        <v>23.53943399672285</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.281153825439034</v>
+        <v>-10.34099494941426</v>
       </c>
       <c r="D32" t="n">
-        <v>55.38987731023124</v>
+        <v>57.3238598975492</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1096,13 +1096,13 @@
         <v>44869</v>
       </c>
       <c r="B33" t="n">
-        <v>34.06662203619078</v>
+        <v>35.44726378418039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6542234607477573</v>
+        <v>1.490435125446708</v>
       </c>
       <c r="D33" t="n">
-        <v>67.48934471734809</v>
+        <v>68.16658851062648</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1116,13 +1116,13 @@
         <v>44873</v>
       </c>
       <c r="B34" t="n">
-        <v>34.08176252547825</v>
+        <v>35.09535481566134</v>
       </c>
       <c r="C34" t="n">
-        <v>4.413718917204314</v>
+        <v>0.5631016066073775</v>
       </c>
       <c r="D34" t="n">
-        <v>65.43157831858552</v>
+        <v>69.10696733828237</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>44880</v>
       </c>
       <c r="B35" t="n">
-        <v>25.39810791990273</v>
+        <v>25.84324320542793</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.374464753529972</v>
+        <v>-8.299088963764197</v>
       </c>
       <c r="D35" t="n">
-        <v>57.85071433175039</v>
+        <v>55.30997763078413</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1156,13 +1156,13 @@
         <v>44890</v>
       </c>
       <c r="B36" t="n">
-        <v>12.27388052442778</v>
+        <v>11.49554079260357</v>
       </c>
       <c r="C36" t="n">
-        <v>-20.75398335334028</v>
+        <v>-19.42518334648679</v>
       </c>
       <c r="D36" t="n">
-        <v>43.60017281675093</v>
+        <v>44.13128607420455</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44936</v>
       </c>
       <c r="B37" t="n">
-        <v>11.43257106561085</v>
+        <v>11.282745503154</v>
       </c>
       <c r="C37" t="n">
-        <v>-22.31997016402567</v>
+        <v>-21.67367721333669</v>
       </c>
       <c r="D37" t="n">
-        <v>42.57741262518632</v>
+        <v>44.04077236367369</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1196,13 +1196,13 @@
         <v>44943</v>
       </c>
       <c r="B38" t="n">
-        <v>16.35070792402473</v>
+        <v>17.00739659126903</v>
       </c>
       <c r="C38" t="n">
-        <v>-16.81996656796097</v>
+        <v>-15.73081682129403</v>
       </c>
       <c r="D38" t="n">
-        <v>49.89503898097747</v>
+        <v>48.0645767886442</v>
       </c>
       <c r="E38" t="n">
         <v>40</v>
@@ -1216,13 +1216,13 @@
         <v>44950</v>
       </c>
       <c r="B39" t="n">
-        <v>31.51778889747202</v>
+        <v>32.05558935117588</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.111138474830313</v>
+        <v>-0.1551832448316474</v>
       </c>
       <c r="D39" t="n">
-        <v>65.03443188562312</v>
+        <v>64.59230438279113</v>
       </c>
       <c r="E39" t="n">
         <v>70</v>
@@ -1236,13 +1236,13 @@
         <v>44957</v>
       </c>
       <c r="B40" t="n">
-        <v>44.76568638305437</v>
+        <v>44.78087592569849</v>
       </c>
       <c r="C40" t="n">
-        <v>13.09456813421984</v>
+        <v>12.47009024213332</v>
       </c>
       <c r="D40" t="n">
-        <v>75.46448460271699</v>
+        <v>75.92102980578409</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44960</v>
       </c>
       <c r="B41" t="n">
-        <v>32.66798669842792</v>
+        <v>32.59659396089631</v>
       </c>
       <c r="C41" t="n">
-        <v>2.703359347148659</v>
+        <v>1.884642841437807</v>
       </c>
       <c r="D41" t="n">
-        <v>64.02291663078896</v>
+        <v>64.52397275018781</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44964</v>
       </c>
       <c r="B42" t="n">
-        <v>33.46791916509299</v>
+        <v>33.83359944969694</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.582778547147379</v>
+        <v>0.8428119398040289</v>
       </c>
       <c r="D42" t="n">
-        <v>65.64310945000796</v>
+        <v>66.88861426557935</v>
       </c>
       <c r="E42" t="n">
         <v>70</v>
@@ -1296,13 +1296,13 @@
         <v>45006</v>
       </c>
       <c r="B43" t="n">
-        <v>66.62288102465797</v>
+        <v>68.04910298136852</v>
       </c>
       <c r="C43" t="n">
-        <v>34.9209978863526</v>
+        <v>35.65760446160822</v>
       </c>
       <c r="D43" t="n">
-        <v>98.65631629725195</v>
+        <v>98.05319494652493</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1316,13 +1316,13 @@
         <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>26.45598364445041</v>
+        <v>27.73800013648955</v>
       </c>
       <c r="C44" t="n">
-        <v>-4.047440636033379</v>
+        <v>-7.753370213568706</v>
       </c>
       <c r="D44" t="n">
-        <v>58.52288264494358</v>
+        <v>60.63253291333148</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1336,13 +1336,13 @@
         <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>20.77034198572954</v>
+        <v>22.25559111650018</v>
       </c>
       <c r="C45" t="n">
-        <v>-11.2584978293512</v>
+        <v>-12.54603223118232</v>
       </c>
       <c r="D45" t="n">
-        <v>53.21128702489526</v>
+        <v>51.91223911955058</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1417,25 +1417,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>923.3185454866368</v>
+        <v>896.5203363146172</v>
       </c>
       <c r="C2" t="n">
-        <v>30.38615713588404</v>
+        <v>29.94194944078654</v>
       </c>
       <c r="D2" t="n">
-        <v>24.11879370964296</v>
+        <v>23.5507379994744</v>
       </c>
       <c r="E2" t="n">
-        <v>1.90328246062276</v>
+        <v>1.868459867001113</v>
       </c>
       <c r="F2" t="n">
-        <v>1.163080843456961</v>
+        <v>1.164441397126478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7784892526112317</v>
+        <v>0.7640535697559985</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -1443,25 +1443,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>420.2145890501903</v>
+        <v>211.5421528619117</v>
       </c>
       <c r="C3" t="n">
-        <v>20.49913630010275</v>
+        <v>14.54448874529152</v>
       </c>
       <c r="D3" t="n">
-        <v>16.01221240487528</v>
+        <v>12.77390302259094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7383778207696653</v>
+        <v>0.6674715020555684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7040881262739124</v>
+        <v>0.613823426503699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4774736645707285</v>
+        <v>0.4453690209858618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1469,25 +1469,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>696.1053234474512</v>
+        <v>698.1326072329766</v>
       </c>
       <c r="C4" t="n">
-        <v>26.38380797852068</v>
+        <v>26.42219913695634</v>
       </c>
       <c r="D4" t="n">
-        <v>21.23276319156979</v>
+        <v>21.68025748196663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8577893623326212</v>
+        <v>0.8492178940870811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5704890873963193</v>
+        <v>0.5420630092689159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6041384171058963</v>
+        <v>0.6060804533037678</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7142857142857144</v>
+        <v>0.7241379310344831</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451153/OBASPA4451153_Sell in_metricas.xlsx
@@ -473,159 +473,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38.76822613741132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.225395844565148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.30046843112336</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44649</v>
-      </c>
-      <c r="B2" t="n">
-        <v>52.44614343205969</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.99688769250926</v>
-      </c>
-      <c r="D2" t="n">
-        <v>87.08774739856739</v>
-      </c>
-      <c r="E2" t="n">
-        <v>80</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31.61159670618857</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.479562326562536</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.95148974054261</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44656</v>
-      </c>
-      <c r="B3" t="n">
-        <v>38.76822613741132</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.660200698229613</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.65500814314916</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48.04126125760349</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.09858438351821</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.95978395876534</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44663</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31.61159670618857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-2.587376136975185</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.42476886258038</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58.82887312771592</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.88608793976418</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.91138755957191</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44670</v>
-      </c>
-      <c r="B5" t="n">
-        <v>48.04126125760349</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.26561007168941</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82.97842010404678</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B6" t="n">
+        <v>38.02274260122357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.230096546770068</v>
+      </c>
+      <c r="D6" t="n">
+        <v>71.25969511003937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44677</v>
-      </c>
-      <c r="B6" t="n">
-        <v>58.82887312771592</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.98508394790628</v>
-      </c>
-      <c r="D6" t="n">
-        <v>91.95978064271381</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44670</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.11058029819053</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2542550988585753</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.7004372236667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44684</v>
-      </c>
-      <c r="B7" t="n">
-        <v>38.02274260122357</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.498056130585331</v>
-      </c>
-      <c r="D7" t="n">
-        <v>71.63465842361278</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44691</v>
+        <v>44701</v>
       </c>
       <c r="B8" t="n">
-        <v>35.11058029819053</v>
+        <v>13.66003394039745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7473615042292693</v>
+        <v>-18.39263788295419</v>
       </c>
       <c r="D8" t="n">
-        <v>69.99832725341471</v>
+        <v>48.30201128958115</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44684</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44701</v>
+        <v>44705</v>
       </c>
       <c r="B9" t="n">
-        <v>13.66003394039745</v>
+        <v>17.16942170419011</v>
       </c>
       <c r="C9" t="n">
-        <v>-22.23450032212188</v>
+        <v>-17.26371515084805</v>
       </c>
       <c r="D9" t="n">
-        <v>47.1833238899011</v>
+        <v>49.37727444001251</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44698</v>
@@ -633,39 +633,39 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44705</v>
+        <v>44715</v>
       </c>
       <c r="B10" t="n">
-        <v>17.16942170419011</v>
+        <v>26.40974884442744</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.50196687765551</v>
+        <v>-7.5074510389375</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7098506824165</v>
+        <v>61.98071896283668</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44698</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44715</v>
+        <v>44719</v>
       </c>
       <c r="B11" t="n">
-        <v>26.40974884442744</v>
+        <v>33.25909713559005</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.71861760527867</v>
+        <v>0.3778767134050635</v>
       </c>
       <c r="D11" t="n">
-        <v>58.82422470076181</v>
+        <v>65.16766918320009</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44712</v>
@@ -673,59 +673,59 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44719</v>
+        <v>44726</v>
       </c>
       <c r="B12" t="n">
-        <v>33.25909713559005</v>
+        <v>28.74400068984115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6621295557559564</v>
+        <v>-4.570419677404011</v>
       </c>
       <c r="D12" t="n">
-        <v>65.98140511209304</v>
+        <v>61.51198945865311</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44712</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44726</v>
+        <v>44736</v>
       </c>
       <c r="B13" t="n">
-        <v>28.74400068984115</v>
+        <v>26.90923579353707</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.766456205253474</v>
+        <v>-7.05409958638143</v>
       </c>
       <c r="D13" t="n">
-        <v>63.04833173362382</v>
+        <v>59.72386611533973</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44719</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B14" t="n">
-        <v>26.90923579353707</v>
+        <v>33.63720549385457</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.369563329376156</v>
+        <v>-0.9969456739700064</v>
       </c>
       <c r="D14" t="n">
-        <v>60.94901361362856</v>
+        <v>66.5981183535101</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44733</v>
@@ -733,36 +733,36 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36.589704194822</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.957226969915773</v>
+      </c>
+      <c r="D15" t="n">
+        <v>68.07758102279945</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44740</v>
-      </c>
-      <c r="B15" t="n">
-        <v>33.63720549385457</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.872485158740697</v>
-      </c>
-      <c r="D15" t="n">
-        <v>68.33090592313096</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="B16" t="n">
-        <v>36.589704194822</v>
+        <v>42.08209582863425</v>
       </c>
       <c r="C16" t="n">
-        <v>4.373853794188249</v>
+        <v>8.98644752523961</v>
       </c>
       <c r="D16" t="n">
-        <v>67.62447068950357</v>
+        <v>74.64775883776429</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
@@ -773,119 +773,119 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B17" t="n">
+        <v>42.16807858319389</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.565080291660209</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.56489184397357</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44747</v>
-      </c>
-      <c r="B17" t="n">
-        <v>42.08209582863425</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.62882907682813</v>
-      </c>
-      <c r="D17" t="n">
-        <v>77.29358898640515</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44740</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44754</v>
+        <v>44761</v>
       </c>
       <c r="B18" t="n">
-        <v>42.16807858319389</v>
+        <v>51.49198929018043</v>
       </c>
       <c r="C18" t="n">
-        <v>11.78124912255395</v>
+        <v>19.12767818263441</v>
       </c>
       <c r="D18" t="n">
-        <v>74.04632581386562</v>
+        <v>83.38652749141922</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44747</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44761</v>
+        <v>44771</v>
       </c>
       <c r="B19" t="n">
-        <v>51.49198929018043</v>
+        <v>73.76957476520376</v>
       </c>
       <c r="C19" t="n">
-        <v>20.9437851621332</v>
+        <v>40.66915430356357</v>
       </c>
       <c r="D19" t="n">
-        <v>85.7274097675942</v>
+        <v>104.3857026066192</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44754</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44771</v>
+        <v>44778</v>
       </c>
       <c r="B20" t="n">
-        <v>73.76957476520376</v>
+        <v>64.93324191379435</v>
       </c>
       <c r="C20" t="n">
-        <v>42.32926229463914</v>
+        <v>32.37684096261949</v>
       </c>
       <c r="D20" t="n">
-        <v>103.8067468261766</v>
+        <v>97.37605001878043</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44768</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="B21" t="n">
-        <v>64.93324191379435</v>
+        <v>50.1870438613974</v>
       </c>
       <c r="C21" t="n">
-        <v>28.74924629223288</v>
+        <v>18.14872462961547</v>
       </c>
       <c r="D21" t="n">
-        <v>100.9067650883389</v>
+        <v>83.77942907290809</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44775</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44785</v>
+        <v>44789</v>
       </c>
       <c r="B22" t="n">
-        <v>50.1870438613974</v>
+        <v>45.24672317819635</v>
       </c>
       <c r="C22" t="n">
-        <v>16.31093011383641</v>
+        <v>15.31782990053572</v>
       </c>
       <c r="D22" t="n">
-        <v>85.07890465233724</v>
+        <v>78.26085427361323</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>44782</v>
@@ -893,102 +893,102 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44789</v>
+        <v>44796</v>
       </c>
       <c r="B23" t="n">
-        <v>45.24672317819635</v>
+        <v>11.36753559597421</v>
       </c>
       <c r="C23" t="n">
-        <v>12.25164634319869</v>
+        <v>-22.16168463921777</v>
       </c>
       <c r="D23" t="n">
-        <v>77.38711306880472</v>
+        <v>45.31548671199164</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44782</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.95018312333695</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.26463963381126</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50.40409403189295</v>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B24" t="n">
-        <v>11.36753559597421</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-20.58848166732805</v>
-      </c>
-      <c r="D24" t="n">
-        <v>43.20410933469456</v>
-      </c>
-      <c r="E24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B25" t="n">
+        <v>55.01157883784865</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.39200005939735</v>
+      </c>
+      <c r="D25" t="n">
+        <v>87.85159523460709</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B25" t="n">
-        <v>16.95018312333695</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-15.98875601160702</v>
-      </c>
-      <c r="D25" t="n">
-        <v>49.15974449224567</v>
-      </c>
-      <c r="E25" t="n">
-        <v>80</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B26" t="n">
+        <v>74.40085895540706</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42.55759284679004</v>
+      </c>
+      <c r="D26" t="n">
+        <v>107.134405680921</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B26" t="n">
-        <v>55.01157883784865</v>
-      </c>
-      <c r="C26" t="n">
-        <v>21.48905933141356</v>
-      </c>
-      <c r="D26" t="n">
-        <v>86.86307457038127</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B27" t="n">
-        <v>74.40085895540706</v>
+        <v>73.92449822147645</v>
       </c>
       <c r="C27" t="n">
-        <v>43.85650664670668</v>
+        <v>40.22617053839388</v>
       </c>
       <c r="D27" t="n">
-        <v>109.7125517052602</v>
+        <v>106.9775570574992</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44810</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="28">
@@ -996,13 +996,13 @@
         <v>44838</v>
       </c>
       <c r="B28" t="n">
-        <v>58.91516448897325</v>
+        <v>52.66674946030864</v>
       </c>
       <c r="C28" t="n">
-        <v>24.58805410053699</v>
+        <v>18.60925315990246</v>
       </c>
       <c r="D28" t="n">
-        <v>91.68802707883172</v>
+        <v>86.39705926805343</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
@@ -1016,13 +1016,13 @@
         <v>44845</v>
       </c>
       <c r="B29" t="n">
-        <v>40.2072466010346</v>
+        <v>39.49820919356983</v>
       </c>
       <c r="C29" t="n">
-        <v>7.379308345840528</v>
+        <v>7.194390911960498</v>
       </c>
       <c r="D29" t="n">
-        <v>75.05064500927698</v>
+        <v>72.50558057104533</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -1036,13 +1036,13 @@
         <v>44852</v>
       </c>
       <c r="B30" t="n">
-        <v>32.15223397443317</v>
+        <v>33.01415843848498</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.171107779251309</v>
+        <v>-0.1983413868436124</v>
       </c>
       <c r="D30" t="n">
-        <v>64.701780777039</v>
+        <v>67.49672619774701</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1056,13 +1056,13 @@
         <v>44859</v>
       </c>
       <c r="B31" t="n">
-        <v>35.56982494998465</v>
+        <v>34.76320154603345</v>
       </c>
       <c r="C31" t="n">
-        <v>3.333242074379877</v>
+        <v>1.586224464482542</v>
       </c>
       <c r="D31" t="n">
-        <v>67.53149091442614</v>
+        <v>67.50579294524873</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
@@ -1076,13 +1076,13 @@
         <v>44865</v>
       </c>
       <c r="B32" t="n">
-        <v>23.53943399672285</v>
+        <v>23.03237032393219</v>
       </c>
       <c r="C32" t="n">
-        <v>-10.34099494941426</v>
+        <v>-9.497227099959771</v>
       </c>
       <c r="D32" t="n">
-        <v>57.3238598975492</v>
+        <v>56.41660070964605</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1096,13 +1096,13 @@
         <v>44869</v>
       </c>
       <c r="B33" t="n">
-        <v>35.44726378418039</v>
+        <v>33.93953137120523</v>
       </c>
       <c r="C33" t="n">
-        <v>1.490435125446708</v>
+        <v>1.583652318965853</v>
       </c>
       <c r="D33" t="n">
-        <v>68.16658851062648</v>
+        <v>66.24804352526598</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1116,13 +1116,13 @@
         <v>44873</v>
       </c>
       <c r="B34" t="n">
-        <v>35.09535481566134</v>
+        <v>34.13101147719607</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5631016066073775</v>
+        <v>1.383006280419499</v>
       </c>
       <c r="D34" t="n">
-        <v>69.10696733828237</v>
+        <v>70.10671736848523</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1136,13 +1136,13 @@
         <v>44880</v>
       </c>
       <c r="B35" t="n">
-        <v>25.84324320542793</v>
+        <v>25.08778565495147</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.299088963764197</v>
+        <v>-8.832169586844424</v>
       </c>
       <c r="D35" t="n">
-        <v>55.30997763078413</v>
+        <v>58.09005818721014</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1156,13 +1156,13 @@
         <v>44890</v>
       </c>
       <c r="B36" t="n">
-        <v>11.49554079260357</v>
+        <v>11.78545330183591</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.42518334648679</v>
+        <v>-22.29279501227138</v>
       </c>
       <c r="D36" t="n">
-        <v>44.13128607420455</v>
+        <v>45.23702680154744</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1176,13 +1176,13 @@
         <v>44936</v>
       </c>
       <c r="B37" t="n">
-        <v>11.282745503154</v>
+        <v>11.42929556254306</v>
       </c>
       <c r="C37" t="n">
-        <v>-21.67367721333669</v>
+        <v>-20.29879930137708</v>
       </c>
       <c r="D37" t="n">
-        <v>44.04077236367369</v>
+        <v>44.47564274476743</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1196,13 +1196,13 @@
         <v>44943</v>
       </c>
       <c r="B38" t="n">
-        <v>17.00739659126903</v>
+        <v>16.07240397977662</v>
       </c>
       <c r="C38" t="n">
-        <v>-15.73081682129403</v>
+        <v>-15.71352070015064</v>
       </c>
       <c r="D38" t="n">
-        <v>48.0645767886442</v>
+        <v>48.29012452470857</v>
       </c>
       <c r="E38" t="n">
         <v>40</v>
@@ -1216,13 +1216,13 @@
         <v>44950</v>
       </c>
       <c r="B39" t="n">
-        <v>32.05558935117588</v>
+        <v>31.68735672816508</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1551832448316474</v>
+        <v>-1.334225945597239</v>
       </c>
       <c r="D39" t="n">
-        <v>64.59230438279113</v>
+        <v>63.56357580490534</v>
       </c>
       <c r="E39" t="n">
         <v>70</v>
@@ -1236,13 +1236,13 @@
         <v>44957</v>
       </c>
       <c r="B40" t="n">
-        <v>44.78087592569849</v>
+        <v>44.08847642160222</v>
       </c>
       <c r="C40" t="n">
-        <v>12.47009024213332</v>
+        <v>9.718552847461092</v>
       </c>
       <c r="D40" t="n">
-        <v>75.92102980578409</v>
+        <v>77.39374905283869</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>44960</v>
       </c>
       <c r="B41" t="n">
-        <v>32.59659396089631</v>
+        <v>32.47805037084363</v>
       </c>
       <c r="C41" t="n">
-        <v>1.884642841437807</v>
+        <v>-2.051590533312881</v>
       </c>
       <c r="D41" t="n">
-        <v>64.52397275018781</v>
+        <v>65.29678643171796</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1276,13 +1276,13 @@
         <v>44964</v>
       </c>
       <c r="B42" t="n">
-        <v>33.83359944969694</v>
+        <v>32.98821249511076</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8428119398040289</v>
+        <v>0.6805234159020441</v>
       </c>
       <c r="D42" t="n">
-        <v>66.88861426557935</v>
+        <v>64.48876092313513</v>
       </c>
       <c r="E42" t="n">
         <v>70</v>
@@ -1296,13 +1296,13 @@
         <v>45006</v>
       </c>
       <c r="B43" t="n">
-        <v>68.04910298136852</v>
+        <v>66.1811533565498</v>
       </c>
       <c r="C43" t="n">
-        <v>35.65760446160822</v>
+        <v>36.03851075047845</v>
       </c>
       <c r="D43" t="n">
-        <v>98.05319494652493</v>
+        <v>98.49132312820714</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1316,13 +1316,13 @@
         <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>27.73800013648955</v>
+        <v>26.86592314921236</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.753370213568706</v>
+        <v>-5.4642388300086</v>
       </c>
       <c r="D44" t="n">
-        <v>60.63253291333148</v>
+        <v>58.063704707643</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1336,13 +1336,13 @@
         <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>22.25559111650018</v>
+        <v>20.69185956139744</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.54603223118232</v>
+        <v>-12.56622996917162</v>
       </c>
       <c r="D45" t="n">
-        <v>51.91223911955058</v>
+        <v>50.7761739019149</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1417,25 +1417,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>896.5203363146172</v>
+        <v>894.4295688867353</v>
       </c>
       <c r="C2" t="n">
-        <v>29.94194944078654</v>
+        <v>29.90701537911691</v>
       </c>
       <c r="D2" t="n">
-        <v>23.5507379994744</v>
+        <v>23.4812260813807</v>
       </c>
       <c r="E2" t="n">
-        <v>1.868459867001113</v>
+        <v>1.861508675191742</v>
       </c>
       <c r="F2" t="n">
         <v>1.164441397126478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7640535697559985</v>
+        <v>0.7617282362019198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1443,25 +1443,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>211.5421528619117</v>
+        <v>419.1177454475845</v>
       </c>
       <c r="C3" t="n">
-        <v>14.54448874529152</v>
+        <v>20.47236540919453</v>
       </c>
       <c r="D3" t="n">
-        <v>12.77390302259094</v>
+        <v>16.22274441427914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6674715020555684</v>
+        <v>0.7432071693651006</v>
       </c>
       <c r="F3" t="n">
-        <v>0.613823426503699</v>
+        <v>0.7065505738598035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4453690209858618</v>
+        <v>0.4845689593871771</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -1469,25 +1469,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>698.1326072329766</v>
+        <v>690.4824228617708</v>
       </c>
       <c r="C4" t="n">
-        <v>26.42219913695634</v>
+        <v>26.2770322308622</v>
       </c>
       <c r="D4" t="n">
-        <v>21.68025748196663</v>
+        <v>21.32006053441982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8492178940870811</v>
+        <v>0.856623472420929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5420630092689159</v>
+        <v>0.572756687908756</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6060804533037678</v>
+        <v>0.6099520825862363</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7241379310344831</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
